--- a/verifications/mepc_79_4.xlsx
+++ b/verifications/mepc_79_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MikeWilson\projects_new\eedi_calculator\verifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\EEDIPy\verifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F0F14C-D43F-47A2-B491-17EFB560532B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90319E5-083A-4C2D-B53D-870538EE43EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{2F72564B-27BD-4FB8-9CF3-ECF0A407678E}"/>
+    <workbookView xWindow="25695" yWindow="2895" windowWidth="21600" windowHeight="15435" xr2:uid="{2F72564B-27BD-4FB8-9CF3-ECF0A407678E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="196">
   <si>
     <t>ship_type</t>
   </si>
@@ -531,12 +531,6 @@
   </si>
   <si>
     <t>pti_eff</t>
-  </si>
-  <si>
-    <t>generator efficiency to supply shaft motors with power. 0 will default to 93%</t>
-  </si>
-  <si>
-    <t>shaft motor efficiency. 0 will default to 97%</t>
   </si>
   <si>
     <t>v_ref_override</t>
@@ -610,12 +604,6 @@
     <t>bor</t>
   </si>
   <si>
-    <t>%cube/day</t>
-  </si>
-  <si>
-    <t>boil off rate of gas cargo per day as a fraction. 0.15% = 0.0015. Defaults to 0.0015 if left at 0</t>
-  </si>
-  <si>
     <t>Ratio of the average solar irradiance on main global shipping route to the nominal solar irradiance specified by the manufacturer. If left at 0, it will default to 0.2</t>
   </si>
   <si>
@@ -629,6 +617,63 @@
   </si>
   <si>
     <t>diesel</t>
+  </si>
+  <si>
+    <t>#electrical shaft drive</t>
+  </si>
+  <si>
+    <t>mpp</t>
+  </si>
+  <si>
+    <t>Power of electric propulsion motors</t>
+  </si>
+  <si>
+    <t>electrical_eff</t>
+  </si>
+  <si>
+    <t>product of electrical efficiency of generator, transformer, converter and motor for diesel electric propulsion. Default is 0.913</t>
+  </si>
+  <si>
+    <t>#lng carriers</t>
+  </si>
+  <si>
+    <t>%/day</t>
+  </si>
+  <si>
+    <t>boil off rate of gas cargo per day as a fraction. 0.15%</t>
+  </si>
+  <si>
+    <t>cop_cooling</t>
+  </si>
+  <si>
+    <t>coefficient of design performance of reliquefaction system. Default is 0.166</t>
+  </si>
+  <si>
+    <t>r_reliq</t>
+  </si>
+  <si>
+    <t>ratio of boil-off gas (BOG) to be reliquefied to entire BOG. Default is 1</t>
+  </si>
+  <si>
+    <t>cop_comp</t>
+  </si>
+  <si>
+    <t>kWhr/kg</t>
+  </si>
+  <si>
+    <t>design power performance of compressors. Default is 0.33</t>
+  </si>
+  <si>
+    <t>hload</t>
+  </si>
+  <si>
+    <t>Consumed electric power excluding propulsion in cruise most demanding conditions</t>
+  </si>
+  <si>
+    <t>generator efficiency to supply shaft motors with power. Default is 93%</t>
+  </si>
+  <si>
+    <t>shaft motor efficiency. Default is 97%</t>
   </si>
 </sst>
 </file>
@@ -652,18 +697,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -681,7 +720,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,9 +741,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -740,7 +781,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -846,7 +887,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -988,7 +1029,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -996,24 +1037,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A043844F-A290-402E-9439-307F308FC23A}">
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.88671875" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1030,12 +1069,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
@@ -1047,9 +1086,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1064,12 +1103,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>52</v>
@@ -1081,7 +1120,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1098,7 +1137,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1115,629 +1154,622 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14">
+        <v>0.15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="C17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
         <v>55</v>
       </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
         <v>55</v>
       </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
         <v>55</v>
       </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
         <v>56</v>
       </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
         <v>57</v>
       </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>8</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
         <v>57</v>
       </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>161</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="B28">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>165</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B31" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
         <v>73</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E31" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="2">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="2">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>10</v>
       </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E38" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>12</v>
       </c>
-      <c r="B29" t="b">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" t="s">
         <v>49</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E41" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>13</v>
       </c>
-      <c r="B32">
+      <c r="B44">
         <v>1000</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C44" t="s">
         <v>56</v>
       </c>
-      <c r="D32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>14</v>
       </c>
-      <c r="B33">
+      <c r="B45">
         <v>1200</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C45" t="s">
         <v>56</v>
       </c>
-      <c r="D33" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>15</v>
       </c>
-      <c r="B34">
+      <c r="B46">
         <v>400</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C46" t="s">
         <v>56</v>
       </c>
-      <c r="D34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>16</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
         <v>56</v>
       </c>
-      <c r="D35" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>101</v>
       </c>
-      <c r="B36">
+      <c r="B48">
         <v>0.95</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C48" t="s">
         <v>105</v>
       </c>
-      <c r="D36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>102</v>
       </c>
-      <c r="B37">
+      <c r="B49">
         <v>0.98</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C49" t="s">
         <v>105</v>
       </c>
-      <c r="D37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D49" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>103</v>
       </c>
-      <c r="B38">
+      <c r="B50">
         <v>0.98</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C50" t="s">
         <v>105</v>
       </c>
-      <c r="D38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>104</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
         <v>105</v>
       </c>
-      <c r="D39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>17</v>
       </c>
-      <c r="B42" t="b">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="B54" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
         <v>49</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E54" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>18</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
         <v>53</v>
       </c>
-      <c r="D43" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>19</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
         <v>53</v>
       </c>
-      <c r="D44" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>20</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" t="s">
-        <v>47</v>
-      </c>
-      <c r="E45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" t="s">
-        <v>47</v>
-      </c>
-      <c r="E46" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" t="s">
-        <v>47</v>
-      </c>
-      <c r="E49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>173</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50" t="s">
-        <v>174</v>
-      </c>
-      <c r="D50" t="s">
-        <v>47</v>
-      </c>
-      <c r="E50" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" t="b">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" t="s">
-        <v>49</v>
-      </c>
-      <c r="E51" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" t="s">
-        <v>117</v>
-      </c>
-      <c r="E52" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" t="s">
-        <v>47</v>
-      </c>
-      <c r="E53" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>144</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>145</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1748,174 +1780,171 @@
       <c r="D57" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" t="s">
+        <v>47</v>
+      </c>
+      <c r="E63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>146</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
         <v>55</v>
       </c>
-      <c r="D58" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="D68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>147</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
         <v>53</v>
       </c>
-      <c r="D59" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="D69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>148</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
         <v>53</v>
       </c>
-      <c r="D60" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="D70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>35</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64" t="s">
-        <v>57</v>
-      </c>
-      <c r="D64" t="s">
-        <v>47</v>
-      </c>
-      <c r="E64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65" t="s">
-        <v>57</v>
-      </c>
-      <c r="D65" t="s">
-        <v>47</v>
-      </c>
-      <c r="E65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68" t="s">
-        <v>57</v>
-      </c>
-      <c r="D68" t="s">
-        <v>47</v>
-      </c>
-      <c r="E68" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>27</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69" t="s">
-        <v>52</v>
-      </c>
-      <c r="D69" t="s">
-        <v>47</v>
-      </c>
-      <c r="E69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70" t="s">
-        <v>57</v>
-      </c>
-      <c r="D70" t="s">
-        <v>47</v>
-      </c>
-      <c r="E70" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>29</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73" t="s">
-        <v>58</v>
-      </c>
-      <c r="D73" t="s">
-        <v>47</v>
-      </c>
-      <c r="E73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>30</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1927,382 +1956,323 @@
         <v>47</v>
       </c>
       <c r="E74" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>57</v>
+      </c>
+      <c r="D75" t="s">
+        <v>47</v>
+      </c>
+      <c r="E75" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>57</v>
+      </c>
+      <c r="D78" t="s">
+        <v>47</v>
+      </c>
+      <c r="E78" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>52</v>
+      </c>
+      <c r="D79" t="s">
+        <v>47</v>
+      </c>
+      <c r="E79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>57</v>
+      </c>
+      <c r="D80" t="s">
+        <v>47</v>
+      </c>
+      <c r="E80" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83" t="s">
+        <v>47</v>
+      </c>
+      <c r="E83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>57</v>
+      </c>
+      <c r="D84" t="s">
+        <v>47</v>
+      </c>
+      <c r="E84" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>31</v>
       </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75" t="s">
-        <v>52</v>
-      </c>
-      <c r="D75" t="s">
-        <v>47</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>52</v>
+      </c>
+      <c r="D85" t="s">
+        <v>47</v>
+      </c>
+      <c r="E85" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>32</v>
       </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76" t="s">
-        <v>52</v>
-      </c>
-      <c r="D76" t="s">
-        <v>47</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>52</v>
+      </c>
+      <c r="D86" t="s">
+        <v>47</v>
+      </c>
+      <c r="E86" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>171</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77" t="s">
-        <v>52</v>
-      </c>
-      <c r="D77" t="s">
-        <v>47</v>
-      </c>
-      <c r="E77" t="s">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>52</v>
+      </c>
+      <c r="D87" t="s">
+        <v>47</v>
+      </c>
+      <c r="E87" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>170</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>52</v>
+      </c>
+      <c r="D88" t="s">
+        <v>47</v>
+      </c>
+      <c r="E88" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <v>5</v>
+      </c>
+      <c r="G91">
+        <v>6</v>
+      </c>
+      <c r="H91">
+        <v>7</v>
+      </c>
+      <c r="I91">
+        <v>8</v>
+      </c>
+      <c r="J91">
+        <v>9</v>
+      </c>
+      <c r="K91">
+        <v>10</v>
+      </c>
+      <c r="L91" t="s">
+        <v>51</v>
+      </c>
+      <c r="M91" t="s">
+        <v>48</v>
+      </c>
+      <c r="N91" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>41</v>
+      </c>
+      <c r="B92" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>172</v>
-      </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78" t="s">
-        <v>52</v>
-      </c>
-      <c r="D78" t="s">
-        <v>47</v>
-      </c>
-      <c r="E78" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>40</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81">
-        <v>2</v>
-      </c>
-      <c r="D81">
-        <v>3</v>
-      </c>
-      <c r="E81">
-        <v>4</v>
-      </c>
-      <c r="F81">
-        <v>5</v>
-      </c>
-      <c r="G81">
-        <v>6</v>
-      </c>
-      <c r="H81">
-        <v>7</v>
-      </c>
-      <c r="I81">
-        <v>8</v>
-      </c>
-      <c r="J81">
-        <v>9</v>
-      </c>
-      <c r="K81">
-        <v>10</v>
-      </c>
-      <c r="L81" t="s">
-        <v>51</v>
-      </c>
-      <c r="M81" t="s">
-        <v>48</v>
-      </c>
-      <c r="N81" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>41</v>
-      </c>
-      <c r="B82" t="s">
-        <v>180</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="C92" t="s">
         <v>11</v>
       </c>
-      <c r="L82" t="s">
-        <v>52</v>
-      </c>
-      <c r="M82" t="s">
+      <c r="L92" t="s">
+        <v>52</v>
+      </c>
+      <c r="M92" t="s">
         <v>125</v>
       </c>
-      <c r="N82" t="s">
+      <c r="N92" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>124</v>
       </c>
-      <c r="B83">
+      <c r="B93">
         <v>5000</v>
       </c>
-      <c r="C83">
+      <c r="C93">
         <v>4000</v>
       </c>
-      <c r="L83" t="s">
+      <c r="L93" t="s">
         <v>57</v>
       </c>
-      <c r="M83" t="s">
-        <v>47</v>
-      </c>
-      <c r="N83" t="s">
+      <c r="M93" t="s">
+        <v>47</v>
+      </c>
+      <c r="N93" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>167</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="L84" t="s">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>165</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="L94" t="s">
         <v>57</v>
       </c>
-      <c r="M84" t="s">
-        <v>47</v>
-      </c>
-      <c r="N84" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="M94" t="s">
+        <v>47</v>
+      </c>
+      <c r="N94" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>42</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B95" t="s">
         <v>140</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C95" t="s">
         <v>140</v>
       </c>
-      <c r="L85" t="s">
-        <v>52</v>
-      </c>
-      <c r="M85" t="s">
+      <c r="L95" t="s">
+        <v>52</v>
+      </c>
+      <c r="M95" t="s">
         <v>128</v>
       </c>
-      <c r="N85" t="s">
+      <c r="N95" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>43</v>
       </c>
-      <c r="C86" t="s">
-        <v>140</v>
-      </c>
-      <c r="L86" t="s">
-        <v>52</v>
-      </c>
-      <c r="M86" t="s">
-        <v>128</v>
-      </c>
-      <c r="N86" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>44</v>
-      </c>
-      <c r="C87" t="s">
-        <v>142</v>
-      </c>
-      <c r="L87" t="s">
-        <v>52</v>
-      </c>
-      <c r="M87" t="s">
-        <v>130</v>
-      </c>
-      <c r="N87" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>45</v>
-      </c>
-      <c r="B88">
-        <v>180</v>
-      </c>
-      <c r="C88">
-        <v>165</v>
-      </c>
-      <c r="L88" t="s">
-        <v>133</v>
-      </c>
-      <c r="M88" t="s">
-        <v>47</v>
-      </c>
-      <c r="N88" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>46</v>
-      </c>
-      <c r="C89">
-        <v>6</v>
-      </c>
-      <c r="L89" t="s">
-        <v>133</v>
-      </c>
-      <c r="M89" t="s">
-        <v>47</v>
-      </c>
-      <c r="N89" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>141</v>
-      </c>
-      <c r="C90">
-        <v>7584</v>
-      </c>
-      <c r="L90" t="s">
-        <v>134</v>
-      </c>
-      <c r="M90" t="s">
-        <v>47</v>
-      </c>
-      <c r="N90" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>40</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93">
-        <v>2</v>
-      </c>
-      <c r="D93">
-        <v>3</v>
-      </c>
-      <c r="E93">
-        <v>4</v>
-      </c>
-      <c r="F93">
-        <v>5</v>
-      </c>
-      <c r="G93">
-        <v>6</v>
-      </c>
-      <c r="H93">
-        <v>7</v>
-      </c>
-      <c r="I93">
-        <v>8</v>
-      </c>
-      <c r="J93">
-        <v>9</v>
-      </c>
-      <c r="K93">
-        <v>10</v>
-      </c>
-      <c r="L93" t="s">
-        <v>51</v>
-      </c>
-      <c r="M93" t="s">
-        <v>48</v>
-      </c>
-      <c r="N93" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>41</v>
-      </c>
-      <c r="B94" t="s">
-        <v>11</v>
-      </c>
-      <c r="L94" t="s">
-        <v>52</v>
-      </c>
-      <c r="M94" t="s">
-        <v>125</v>
-      </c>
-      <c r="N94" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>124</v>
-      </c>
-      <c r="B95">
-        <v>1000</v>
-      </c>
-      <c r="L95" t="s">
-        <v>57</v>
-      </c>
-      <c r="M95" t="s">
-        <v>47</v>
-      </c>
-      <c r="N95" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>42</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>140</v>
       </c>
       <c r="L96" t="s">
@@ -2312,49 +2282,52 @@
         <v>128</v>
       </c>
       <c r="N96" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>43</v>
-      </c>
-      <c r="B97" t="s">
-        <v>140</v>
+        <v>44</v>
+      </c>
+      <c r="C97" t="s">
+        <v>142</v>
       </c>
       <c r="L97" t="s">
         <v>52</v>
       </c>
       <c r="M97" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N97" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>44</v>
-      </c>
-      <c r="B98" t="s">
-        <v>142</v>
+        <v>45</v>
+      </c>
+      <c r="B98">
+        <v>180</v>
+      </c>
+      <c r="C98">
+        <v>185</v>
       </c>
       <c r="L98" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="M98" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="N98" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>45</v>
-      </c>
-      <c r="B99">
-        <v>187</v>
+        <v>46</v>
+      </c>
+      <c r="C99">
+        <v>6</v>
       </c>
       <c r="L99" t="s">
         <v>133</v>
@@ -2363,190 +2336,357 @@
         <v>47</v>
       </c>
       <c r="N99" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>141</v>
+      </c>
+      <c r="C100">
+        <v>7584</v>
+      </c>
+      <c r="L100" t="s">
+        <v>134</v>
+      </c>
+      <c r="M100" t="s">
+        <v>47</v>
+      </c>
+      <c r="N100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>40</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+      <c r="F103">
+        <v>5</v>
+      </c>
+      <c r="G103">
+        <v>6</v>
+      </c>
+      <c r="H103">
+        <v>7</v>
+      </c>
+      <c r="I103">
+        <v>8</v>
+      </c>
+      <c r="J103">
+        <v>9</v>
+      </c>
+      <c r="K103">
+        <v>10</v>
+      </c>
+      <c r="L103" t="s">
+        <v>51</v>
+      </c>
+      <c r="M103" t="s">
+        <v>48</v>
+      </c>
+      <c r="N103" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>41</v>
+      </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="L104" t="s">
+        <v>52</v>
+      </c>
+      <c r="M104" t="s">
+        <v>125</v>
+      </c>
+      <c r="N104" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>124</v>
+      </c>
+      <c r="B105">
+        <v>1000</v>
+      </c>
+      <c r="L105" t="s">
+        <v>57</v>
+      </c>
+      <c r="M105" t="s">
+        <v>47</v>
+      </c>
+      <c r="N105" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>42</v>
+      </c>
+      <c r="B106" t="s">
+        <v>140</v>
+      </c>
+      <c r="L106" t="s">
+        <v>52</v>
+      </c>
+      <c r="M106" t="s">
+        <v>128</v>
+      </c>
+      <c r="N106" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>43</v>
+      </c>
+      <c r="B107" t="s">
+        <v>140</v>
+      </c>
+      <c r="L107" t="s">
+        <v>52</v>
+      </c>
+      <c r="M107" t="s">
+        <v>128</v>
+      </c>
+      <c r="N107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>44</v>
+      </c>
+      <c r="B108" t="s">
+        <v>142</v>
+      </c>
+      <c r="L108" t="s">
+        <v>52</v>
+      </c>
+      <c r="M108" t="s">
+        <v>130</v>
+      </c>
+      <c r="N108" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>45</v>
+      </c>
+      <c r="B109">
+        <v>187</v>
+      </c>
+      <c r="L109" t="s">
+        <v>133</v>
+      </c>
+      <c r="M109" t="s">
+        <v>47</v>
+      </c>
+      <c r="N109" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>46</v>
       </c>
-      <c r="B100">
+      <c r="B110">
         <v>7</v>
       </c>
-      <c r="L100" t="s">
+      <c r="L110" t="s">
         <v>133</v>
       </c>
-      <c r="M100" t="s">
-        <v>47</v>
-      </c>
-      <c r="N100" t="s">
+      <c r="M110" t="s">
+        <v>47</v>
+      </c>
+      <c r="N110" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>141</v>
       </c>
-      <c r="B101">
+      <c r="B111">
         <v>7680</v>
       </c>
-      <c r="L101" t="s">
+      <c r="L111" t="s">
         <v>134</v>
       </c>
-      <c r="M101" t="s">
-        <v>47</v>
-      </c>
-      <c r="N101" t="s">
+      <c r="M111" t="s">
+        <v>47</v>
+      </c>
+      <c r="N111" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>157</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B114" t="s">
         <v>158</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C114" t="s">
         <v>159</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D114" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>140</v>
       </c>
-      <c r="B105">
+      <c r="B115">
         <v>42700</v>
       </c>
-      <c r="C105">
+      <c r="C115">
         <v>3.206</v>
       </c>
-      <c r="D105">
+      <c r="D115">
         <v>0.87439999999999996</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>150</v>
       </c>
-      <c r="B106">
+      <c r="B116">
         <v>41200</v>
       </c>
-      <c r="C106">
+      <c r="C116">
         <v>3.1509999999999998</v>
       </c>
-      <c r="D106">
+      <c r="D116">
         <v>0.85940000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>151</v>
       </c>
-      <c r="B107">
+      <c r="B117">
         <v>40200</v>
       </c>
-      <c r="C107">
+      <c r="C117">
         <v>3.1139999999999999</v>
       </c>
-      <c r="D107">
+      <c r="D117">
         <v>0.84930000000000005</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>152</v>
       </c>
-      <c r="B108">
+      <c r="B118">
         <v>46300</v>
       </c>
-      <c r="C108">
+      <c r="C118">
         <v>3</v>
       </c>
-      <c r="D108">
+      <c r="D118">
         <v>0.81820000000000004</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>153</v>
       </c>
-      <c r="B109">
+      <c r="B119">
         <v>45700</v>
       </c>
-      <c r="C109">
+      <c r="C119">
         <v>3.03</v>
       </c>
-      <c r="D109">
+      <c r="D119">
         <v>0.82640000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>154</v>
       </c>
-      <c r="B110">
+      <c r="B120">
         <v>46400</v>
       </c>
-      <c r="C110">
+      <c r="C120">
         <v>2.927</v>
       </c>
-      <c r="D110">
+      <c r="D120">
         <v>0.79890000000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>142</v>
       </c>
-      <c r="B111">
+      <c r="B121">
         <v>48000</v>
       </c>
-      <c r="C111">
+      <c r="C121">
         <v>2.75</v>
       </c>
-      <c r="D111">
+      <c r="D121">
         <v>0.75</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>155</v>
       </c>
-      <c r="B112">
+      <c r="B122">
         <v>19900</v>
       </c>
-      <c r="C112">
+      <c r="C122">
         <v>1.375</v>
       </c>
-      <c r="D112">
+      <c r="D122">
         <v>0.375</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>156</v>
       </c>
-      <c r="B113">
+      <c r="B123">
         <v>26800</v>
       </c>
-      <c r="C113">
+      <c r="C123">
         <v>1.913</v>
       </c>
-      <c r="D113">
+      <c r="D123">
         <v>0.52170000000000005</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{A043844F-A290-402E-9439-307F308FC23A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
